--- a/data/trans_bre/P17G_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P17G_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.299104110160199</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.8435131322780287</v>
+        <v>-0.8435131322780176</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01966059980823827</v>
@@ -649,7 +649,7 @@
         <v>-0.01326413643252686</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.008555739086673054</v>
+        <v>-0.008555739086672943</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3973112059315733</v>
+        <v>-0.2656761281285379</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.844512074869715</v>
+        <v>-0.6683637166901109</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.954826209882309</v>
+        <v>-4.135850583538761</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.688982393066756</v>
+        <v>-2.909468676422994</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.003990616168686272</v>
+        <v>-0.002719235404982176</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.008626554510899892</v>
+        <v>-0.006774580492461334</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.03996935864717879</v>
+        <v>-0.04231522982390695</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02701746977260924</v>
+        <v>-0.02928893461162888</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.210638433439687</v>
+        <v>4.637186882705436</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.958893199059061</v>
+        <v>4.366839260826383</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.122868132526838</v>
+        <v>1.300084024354883</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.562208823934127</v>
+        <v>1.694322252816175</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04519765559336716</v>
+        <v>0.04949406797723196</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04223235163664441</v>
+        <v>0.04643375779602148</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01155185694641448</v>
+        <v>0.01352674450689206</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.01595027466072734</v>
+        <v>0.01748466917204751</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.708148990464688</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.893565159434595</v>
+        <v>0.8935651594345728</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03342923363432718</v>
@@ -749,7 +749,7 @@
         <v>0.04083850386391776</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.009912503463221199</v>
+        <v>0.009912503463220949</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.722699180033725</v>
+        <v>-1.59921396312539</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.702126941875869</v>
+        <v>1.663524490012037</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3346200252648</v>
+        <v>0.4802819020863756</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.286683227294483</v>
+        <v>-3.003350926386677</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01874855447539475</v>
+        <v>-0.0167951211101969</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01821338052225957</v>
+        <v>0.01766170099343753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.003616487321946491</v>
+        <v>0.005186928434955143</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03544041312777513</v>
+        <v>-0.03224830348855789</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.453738086706505</v>
+        <v>8.073137233242733</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.56579889226386</v>
+        <v>8.825738142096498</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.535024091042248</v>
+        <v>7.10147664438016</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.240868678259323</v>
+        <v>5.344495119146183</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09948663714516981</v>
+        <v>0.09501939788055053</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09654147230495438</v>
+        <v>0.09982721704890844</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0858868044537142</v>
+        <v>0.08076035002601725</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.05991709010592641</v>
+        <v>0.0618191753906846</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.776003477277023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-3.175711831437655</v>
+        <v>-3.175711831437633</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1502881740030604</v>
@@ -849,7 +849,7 @@
         <v>0.04797452803858882</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.04046499819373827</v>
+        <v>-0.04046499819373799</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.710018490963526</v>
+        <v>-1.462330715429377</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.44587219803022</v>
+        <v>-14.94101384663831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.436450440514727</v>
+        <v>-6.179979530816563</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-11.61137272533727</v>
+        <v>-11.7784151682301</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02246215928969541</v>
+        <v>-0.01710741158326421</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1539453772302291</v>
+        <v>-0.1683283257854233</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.07500775528212462</v>
+        <v>-0.07143227649770398</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1407274461850389</v>
+        <v>-0.1410928914426248</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>25.88391385829934</v>
+        <v>23.3539529339426</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.90557938208442</v>
+        <v>10.94777399281231</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.07462603016521</v>
+        <v>14.57700470406464</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.29740077142377</v>
+        <v>5.347766785823823</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4373364975841647</v>
+        <v>0.3961725648951559</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1420107124309517</v>
+        <v>0.1488129670568918</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1954774035716607</v>
+        <v>0.2026435159383312</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.08398209940109382</v>
+        <v>0.07095320220837349</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.554089019717198</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4380269011145077</v>
+        <v>0.4380269011144855</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03544072389981508</v>
@@ -949,7 +949,7 @@
         <v>0.02798742843015124</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.004895730663499969</v>
+        <v>0.00489573066349972</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.728239506547543</v>
+        <v>0.5470299139223411</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5087415772834742</v>
+        <v>0.500315017866816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2927257643455831</v>
+        <v>0.1255694689975115</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.682282480059394</v>
+        <v>-2.304371999836682</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.007843968988115462</v>
+        <v>0.005907338153511168</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005456622179264785</v>
+        <v>0.00527165053570032</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.003166606449556335</v>
+        <v>0.001392632141614869</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02936820877716801</v>
+        <v>-0.02510000975578597</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.098762964805185</v>
+        <v>6.136894847373447</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.068156907730191</v>
+        <v>5.178475909905697</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.344988266764457</v>
+        <v>4.86339862701385</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.309892527780774</v>
+        <v>3.696879305239095</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06862271879489125</v>
+        <v>0.06945494597031733</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05553234669918095</v>
+        <v>0.0564397286889944</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05969658277522797</v>
+        <v>0.05391346522405857</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0376662467755346</v>
+        <v>0.0421785251844375</v>
       </c>
     </row>
     <row r="16">
